--- a/WorkBot/refactor/data/orders/Johnston Paper/Johnston Paper_Triphammer_2025-09-19.xlsx
+++ b/WorkBot/refactor/data/orders/Johnston Paper/Johnston Paper_Triphammer_2025-09-19.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +718,33 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>R801</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sandwich Picks</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
